--- a/Users Loads29.xlsx
+++ b/Users Loads29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.768405621230132</v>
+        <v>0.009813969220977025</v>
       </c>
       <c r="C2" t="n">
-        <v>6.621131920497774</v>
+        <v>5.462182818544318</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6237730952673376</v>
+        <v>0.7261695939485373</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.856364557917191</v>
+        <v>1.192547057092041</v>
       </c>
       <c r="C3" t="n">
-        <v>1.82997888810293</v>
+        <v>3.281385277379687</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2206390995004363</v>
+        <v>0.2931506806686283</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.488553825891292</v>
+        <v>1.566835668388872</v>
       </c>
       <c r="C4" t="n">
-        <v>8.496780542592308</v>
+        <v>1.588326095274687</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6212447643275727</v>
+        <v>0.3960503260662407</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.118146578163488</v>
+        <v>2.071074682766095</v>
       </c>
       <c r="C5" t="n">
-        <v>5.416183063889307</v>
+        <v>4.698687301403841</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5718262061486712</v>
+        <v>0.5068839738218642</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.498240554098978</v>
+        <v>3.382064143243381</v>
       </c>
       <c r="C6" t="n">
-        <v>6.02680897674504</v>
+        <v>4.467802489710113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7994300591573221</v>
+        <v>0.4411536902635889</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.442749799486982</v>
+        <v>4.270133868550261</v>
       </c>
       <c r="C7" t="n">
-        <v>6.840733742560282</v>
+        <v>3.568317967225127</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5053816477186643</v>
+        <v>0.5835960882406216</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.466310329109248</v>
+        <v>4.592517278619616</v>
       </c>
       <c r="C8" t="n">
-        <v>3.299404358016004</v>
+        <v>5.419508559878333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5005306498150621</v>
+        <v>0.7461803148957802</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.582048628920415</v>
+        <v>6.070835942967911</v>
       </c>
       <c r="C9" t="n">
-        <v>5.939513460337164</v>
+        <v>2.416906371367066</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5210783467135292</v>
+        <v>0.4995478249762403</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.40197359003915</v>
+        <v>6.392804556578985</v>
       </c>
       <c r="C10" t="n">
-        <v>3.81686204011543</v>
+        <v>4.135841112573103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6831292579251423</v>
+        <v>0.7231982363165215</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.475665915167212</v>
+        <v>6.470317699512129</v>
       </c>
       <c r="C11" t="n">
-        <v>4.715737909120897</v>
+        <v>4.557761353592925</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6117217339755621</v>
+        <v>0.647556435676761</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.924412371785387</v>
+        <v>10.7562053487111</v>
       </c>
       <c r="C12" t="n">
-        <v>4.885520879375062</v>
+        <v>4.479062987485866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4532542584568586</v>
+        <v>0.4660855379397868</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.655066159985973</v>
+        <v>12.68008485475643</v>
       </c>
       <c r="C13" t="n">
-        <v>3.092932857525058</v>
+        <v>2.212618915762245</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5386018837674822</v>
+        <v>0.376145226932482</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.907953117416012</v>
+        <v>12.89195321882943</v>
       </c>
       <c r="C14" t="n">
-        <v>6.830576526407653</v>
+        <v>5.568986762060234</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6156576232420969</v>
+        <v>0.7945611276433515</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9.982205689245522</v>
+        <v>13.06139946820941</v>
       </c>
       <c r="C15" t="n">
-        <v>1.844663463330513</v>
+        <v>4.956751005551578</v>
       </c>
       <c r="D15" t="n">
-        <v>0.293684751729639</v>
+        <v>0.2834593826952755</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.51896508230508</v>
+        <v>14.34838051144141</v>
       </c>
       <c r="C16" t="n">
-        <v>1.30031715316099</v>
+        <v>6.369142437324185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3529749951225779</v>
+        <v>0.4960800443222256</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.74812905090672</v>
+        <v>14.42324679271286</v>
       </c>
       <c r="C17" t="n">
-        <v>5.770688082739096</v>
+        <v>4.717595153131771</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4018784519890343</v>
+        <v>0.4350432802088509</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.59484349998224</v>
+        <v>17.25847032585683</v>
       </c>
       <c r="C18" t="n">
-        <v>3.897974213442231</v>
+        <v>5.33113806225834</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5133073619669107</v>
+        <v>0.2734534515482324</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.92750909935407</v>
+        <v>19.92206171700013</v>
       </c>
       <c r="C19" t="n">
-        <v>4.06929684658528</v>
+        <v>1.71514571030078</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5027085646077747</v>
+        <v>0.2926036960548201</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17.88232802474029</v>
+        <v>23.08278072467364</v>
       </c>
       <c r="C20" t="n">
-        <v>3.584770512995069</v>
+        <v>5.14724165512163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6463289677726441</v>
+        <v>0.2670374852960377</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20.19997627456202</v>
+        <v>24.18989236034563</v>
       </c>
       <c r="C21" t="n">
-        <v>6.11480546368277</v>
+        <v>1.273163660290217</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5190855669996772</v>
+        <v>0.2375756593480204</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21.12510979840031</v>
+        <v>24.48933441279039</v>
       </c>
       <c r="C22" t="n">
-        <v>3.877100334094515</v>
+        <v>5.638049567461533</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4213464216156504</v>
+        <v>1.007690996895927</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21.50679754464569</v>
+        <v>25.92202583030161</v>
       </c>
       <c r="C23" t="n">
-        <v>4.265847326316313</v>
+        <v>5.017202498399529</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4643925065972789</v>
+        <v>0.4600187139217956</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>24.45504838834397</v>
+        <v>27.61918058073666</v>
       </c>
       <c r="C24" t="n">
-        <v>4.812836043552999</v>
+        <v>7.128937344834235</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6299067217932665</v>
+        <v>0.6305989415861005</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.2426000917319</v>
+        <v>27.6840127613614</v>
       </c>
       <c r="C25" t="n">
-        <v>4.114400655414516</v>
+        <v>3.555288353141759</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6871646712470646</v>
+        <v>0.4081254402198048</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28.5227836598478</v>
+        <v>28.64010623458799</v>
       </c>
       <c r="C26" t="n">
-        <v>4.374304268386085</v>
+        <v>4.367303771870753</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6807592283350751</v>
+        <v>0.2201182784334469</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>32.63568012335932</v>
+        <v>29.27700640614891</v>
       </c>
       <c r="C27" t="n">
-        <v>4.275991066997498</v>
+        <v>2.561774208989367</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6445365347441314</v>
+        <v>0.2845284103600966</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.09643476187605</v>
+        <v>29.71630388974771</v>
       </c>
       <c r="C28" t="n">
-        <v>1.780775286953066</v>
+        <v>4.463789292588459</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3522647615641779</v>
+        <v>0.6464083941813835</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>36.71083083327026</v>
+        <v>30.0475402957403</v>
       </c>
       <c r="C29" t="n">
-        <v>2.195382678047996</v>
+        <v>5.049260323065087</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3691448756904775</v>
+        <v>0.6324599749413289</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>37.45958705451979</v>
+        <v>31.752263083003</v>
       </c>
       <c r="C30" t="n">
-        <v>4.359814647908063</v>
+        <v>6.798164295952496</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4797718055414042</v>
+        <v>0.5951790032988106</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>37.48632052947163</v>
+        <v>32.822750275225</v>
       </c>
       <c r="C31" t="n">
-        <v>3.281102295657156</v>
+        <v>3.145257121387247</v>
       </c>
       <c r="D31" t="n">
-        <v>0.32993283565066</v>
+        <v>0.3932055669661726</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>37.58469927346177</v>
+        <v>35.26427629289751</v>
       </c>
       <c r="C32" t="n">
-        <v>4.19051223709196</v>
+        <v>7.316554550625701</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1194758695921465</v>
+        <v>0.77679041732841</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.83943674526117</v>
+        <v>36.21812152556571</v>
       </c>
       <c r="C33" t="n">
-        <v>2.303527642773678</v>
+        <v>6.206922892595349</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2306960909499548</v>
+        <v>0.6002808179384113</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>39.0097789991411</v>
+        <v>36.41119441319319</v>
       </c>
       <c r="C34" t="n">
-        <v>7.594067736060412</v>
+        <v>10.20184830752223</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7065752509265681</v>
+        <v>0.4732458405060798</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>39.39760725587844</v>
+        <v>40.23090346143096</v>
       </c>
       <c r="C35" t="n">
-        <v>8.138054812098961</v>
+        <v>7.115512409165457</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5546894869162694</v>
+        <v>0.6417775522272048</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.64028566909779</v>
+        <v>40.6031106991014</v>
       </c>
       <c r="C36" t="n">
-        <v>1.133922271611541</v>
+        <v>9.941265617257175</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3512134799644889</v>
+        <v>0.3768509962478094</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>41.00535703333497</v>
+        <v>41.06000397794802</v>
       </c>
       <c r="C37" t="n">
-        <v>4.329297945210686</v>
+        <v>6.072939965884224</v>
       </c>
       <c r="D37" t="n">
-        <v>0.439198745058493</v>
+        <v>0.6184282011598021</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>41.95173688059207</v>
+        <v>41.77329725711184</v>
       </c>
       <c r="C38" t="n">
-        <v>1.863517173815039</v>
+        <v>5.003389327004911</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3601730397365613</v>
+        <v>0.3864879271982016</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>42.15513202149707</v>
+        <v>43.27566297447875</v>
       </c>
       <c r="C39" t="n">
-        <v>5.608852830182085</v>
+        <v>4.477937950478132</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6647907788727774</v>
+        <v>0.6930632522428677</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>43.00046906750477</v>
+        <v>43.52687972704184</v>
       </c>
       <c r="C40" t="n">
-        <v>2.158244297671411</v>
+        <v>9.224090278083894</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264688756104331</v>
+        <v>0.5445991040934469</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>43.40488358350893</v>
+        <v>44.44644819957989</v>
       </c>
       <c r="C41" t="n">
-        <v>7.396114380518951</v>
+        <v>1.753745344624981</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8394855247728661</v>
+        <v>0.2996719965052247</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>47.20938195552638</v>
+        <v>44.8961634975113</v>
       </c>
       <c r="C42" t="n">
-        <v>4.572108550792088</v>
+        <v>5.935448748226894</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3750258895085632</v>
+        <v>0.2715471464536222</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>47.45526809750573</v>
+        <v>47.73511288424801</v>
       </c>
       <c r="C43" t="n">
-        <v>5.184064233923206</v>
+        <v>1.191993140685253</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2253223966031106</v>
+        <v>0.2321585447971928</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>48.47067308562317</v>
+        <v>49.92633862899439</v>
       </c>
       <c r="C44" t="n">
-        <v>4.962388567870262</v>
+        <v>8.242937729577966</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5259244529039384</v>
+        <v>0.6731898588032115</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>50.17927739230215</v>
+        <v>50.82201394110999</v>
       </c>
       <c r="C45" t="n">
-        <v>4.456438638210122</v>
+        <v>3.58463549528678</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4119938875884659</v>
+        <v>0.3449359193436335</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>51.44421978935146</v>
+        <v>52.86330516856284</v>
       </c>
       <c r="C46" t="n">
-        <v>6.359593013409371</v>
+        <v>3.01604934851022</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1992782855321315</v>
+        <v>0.29465670260001</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>55.45190361200591</v>
+        <v>53.24158689529139</v>
       </c>
       <c r="C47" t="n">
-        <v>3.545225575621384</v>
+        <v>10.52710352419931</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3777179776607174</v>
+        <v>0.624120814743659</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>56.35689278201217</v>
+        <v>54.97810273519707</v>
       </c>
       <c r="C48" t="n">
-        <v>1.477277068861764</v>
+        <v>8.472964529552129</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2768994490736378</v>
+        <v>0.4236995365752461</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>56.35715032808572</v>
+        <v>55.72446547011131</v>
       </c>
       <c r="C49" t="n">
-        <v>1.664408797313976</v>
+        <v>4.003522222932123</v>
       </c>
       <c r="D49" t="n">
-        <v>0.237642060993704</v>
+        <v>0.2756575128965081</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>58.68039913696025</v>
+        <v>56.17770280497886</v>
       </c>
       <c r="C50" t="n">
-        <v>2.689784484847234</v>
+        <v>6.837436478097663</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4400185814957451</v>
+        <v>0.477820256068485</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>58.77116803179236</v>
+        <v>56.57581747646673</v>
       </c>
       <c r="C51" t="n">
-        <v>6.664946010078647</v>
+        <v>6.240471964965037</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6515773552343812</v>
+        <v>0.7211646398844105</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>58.92444839318191</v>
+        <v>60.41808651136485</v>
       </c>
       <c r="C52" t="n">
-        <v>6.360740737860541</v>
+        <v>3.659982506470986</v>
       </c>
       <c r="D52" t="n">
-        <v>0.456257128554706</v>
+        <v>0.2429821834532013</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>59.94850383317234</v>
+        <v>64.98665520275823</v>
       </c>
       <c r="C53" t="n">
-        <v>4.683858412828123</v>
+        <v>3.721796058797615</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5483526097838582</v>
+        <v>0.4457190948507765</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>61.95890446788484</v>
+        <v>65.10725774047822</v>
       </c>
       <c r="C54" t="n">
-        <v>1.593338400025412</v>
+        <v>2.149021594718868</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2521044766886012</v>
+        <v>0.4561871334304363</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>63.17960223076972</v>
+        <v>65.25237543653881</v>
       </c>
       <c r="C55" t="n">
-        <v>6.379956239657551</v>
+        <v>8.145955335394975</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9988685611498678</v>
+        <v>0.5694979589469783</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>63.71197812924062</v>
+        <v>65.98981100699106</v>
       </c>
       <c r="C56" t="n">
-        <v>2.464134952901744</v>
+        <v>3.856927269729924</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2172746694368078</v>
+        <v>0.2922003894904837</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.82373221909057</v>
+        <v>69.98679088817806</v>
       </c>
       <c r="C57" t="n">
-        <v>8.095876525288309</v>
+        <v>3.118918085703063</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6602582431849157</v>
+        <v>0.5977389253796682</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>67.80523633767693</v>
+        <v>71.31492148984466</v>
       </c>
       <c r="C58" t="n">
-        <v>3.67734505470759</v>
+        <v>2.233744311033993</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2579118337952923</v>
+        <v>0.2229845595858626</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>72.2258766937377</v>
+        <v>72.53831015740562</v>
       </c>
       <c r="C59" t="n">
-        <v>3.216193744461619</v>
+        <v>8.903793297634307</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4553017888754518</v>
+        <v>0.4084051103098985</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>75.14261380573627</v>
+        <v>74.40993033280505</v>
       </c>
       <c r="C60" t="n">
-        <v>3.888643367970751</v>
+        <v>3.654097356018678</v>
       </c>
       <c r="D60" t="n">
-        <v>0.2276291111391726</v>
+        <v>0.6242648973857674</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>75.97291839338168</v>
+        <v>74.75192375760891</v>
       </c>
       <c r="C61" t="n">
-        <v>4.429689718958816</v>
+        <v>1.382320021955507</v>
       </c>
       <c r="D61" t="n">
-        <v>0.2819524487073761</v>
+        <v>0.3560040341798285</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>78.70249865859552</v>
+        <v>74.93909880401526</v>
       </c>
       <c r="C62" t="n">
-        <v>7.136815519542587</v>
+        <v>5.540263116033993</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6611064838872972</v>
+        <v>0.6019402940453928</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>81.64015004334222</v>
+        <v>75.48269369780367</v>
       </c>
       <c r="C63" t="n">
-        <v>4.009691659663574</v>
+        <v>4.673724270885131</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2704561452116981</v>
+        <v>0.4685739852307593</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>81.81762898094948</v>
+        <v>77.75151709634163</v>
       </c>
       <c r="C64" t="n">
-        <v>4.640394475122108</v>
+        <v>4.542762091253021</v>
       </c>
       <c r="D64" t="n">
-        <v>0.2272289412668408</v>
+        <v>0.4461267402401625</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>82.37282456225171</v>
+        <v>80.13149947336636</v>
       </c>
       <c r="C65" t="n">
-        <v>3.50321117165308</v>
+        <v>2.60875082246766</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2035015544597527</v>
+        <v>0.2937017422531613</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>84.01441461529222</v>
+        <v>81.183438795114</v>
       </c>
       <c r="C66" t="n">
-        <v>4.468201304196202</v>
+        <v>5.432632010864847</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7234612097842833</v>
+        <v>0.4075256259236966</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>84.0707845969273</v>
+        <v>81.27616644013899</v>
       </c>
       <c r="C67" t="n">
-        <v>6.91550181228332</v>
+        <v>3.604367172939565</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4644608399266374</v>
+        <v>0.4670275678677585</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>84.78238676995912</v>
+        <v>83.15376327290149</v>
       </c>
       <c r="C68" t="n">
-        <v>6.890780556549514</v>
+        <v>4.107960174013623</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4566373963457575</v>
+        <v>0.2066852089862372</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>85.57359345655847</v>
+        <v>83.39713331213849</v>
       </c>
       <c r="C69" t="n">
-        <v>3.9114908398843</v>
+        <v>4.006240592700196</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7036259906102253</v>
+        <v>0.747149462053189</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>88.61328190169345</v>
+        <v>85.47273514521804</v>
       </c>
       <c r="C70" t="n">
-        <v>3.812283256494054</v>
+        <v>5.629065470825552</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4374486482503086</v>
+        <v>0.6301387307983135</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>88.82779963496517</v>
+        <v>86.76304712078324</v>
       </c>
       <c r="C71" t="n">
-        <v>2.775121824758477</v>
+        <v>2.892404332343843</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2099717523309133</v>
+        <v>0.3883951326189075</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>88.98225213049345</v>
+        <v>87.40772906464281</v>
       </c>
       <c r="C72" t="n">
-        <v>3.638860517165821</v>
+        <v>10.46778992347473</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5889007473735099</v>
+        <v>0.4858406401008161</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>89.33947158254209</v>
+        <v>92.93616654884543</v>
       </c>
       <c r="C73" t="n">
-        <v>8.153223209921801</v>
+        <v>7.02454441327987</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5032793745377018</v>
+        <v>0.5481133999659223</v>
       </c>
     </row>
     <row r="74">
@@ -1463,111 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>89.57768336342274</v>
+        <v>96.06539287182014</v>
       </c>
       <c r="C74" t="n">
-        <v>4.255921005827046</v>
+        <v>2.05179919860438</v>
       </c>
       <c r="D74" t="n">
-        <v>0.627374458774655</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>90.71009281936374</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.217940675250325</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.5668133790196224</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>91.68309718735669</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5.694692430214701</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.3481325156466729</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>93.42480613692379</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3.183059623092463</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.2313062741723652</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>95.77065298557655</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1.592518686707675</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.1115805243558717</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>97.33701800054456</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.490726648673323</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.6094137333853239</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>98.77342256616942</v>
-      </c>
-      <c r="C80" t="n">
-        <v>7.363084058945779</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.551723521905694</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>99.31238248766594</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.94470369074602</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.8216640492237474</v>
+        <v>0.3053026253373703</v>
       </c>
     </row>
   </sheetData>
